--- a/CR/ProxyT2.xlsx
+++ b/CR/ProxyT2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="19500" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Base(B)</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Bpel</t>
+  </si>
+  <si>
+    <t>Proxy</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -149,13 +152,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -164,15 +172,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0"/>
@@ -531,102 +543,102 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" outlineLevel="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>33</v>
       </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
         <v>14</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <v>47</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>1.17</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="10">
         <v>0.5</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <v>22</v>
       </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
         <v>6</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>28</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="5">
         <v>0.45</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="10">
         <v>0.55555555555555558</v>
       </c>
     </row>
@@ -731,118 +743,174 @@
       </c>
     </row>
     <row r="6" spans="1:16" outlineLevel="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <f>SUM(C4:C5)</f>
         <v>356</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <f t="shared" ref="D6:N6" si="0">SUM(D4:D5)</f>
         <v>34</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5">
+      <c r="H6" s="5"/>
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
         <v>0.91666666666666674</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <f t="shared" si="0"/>
         <v>415</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5">
+      <c r="O6" s="5"/>
+      <c r="P6" s="6">
         <f t="shared" ref="P6" si="1">SUM(P4:P5)</f>
         <v>1.0659722222222223</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <f>SUM(C3:C5)</f>
         <v>389</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <f t="shared" ref="D7:G7" si="2">SUM(D3:D5)</f>
         <v>34</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <f t="shared" si="2"/>
         <v>418</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7">
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
         <v>1.4166666666666667</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="7">
         <f>SUM(J3+J5+J4)</f>
         <v>378</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="7">
         <f t="shared" ref="K7:N7" si="3">SUM(K3+K5+K4)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="7">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="7">
         <f t="shared" si="3"/>
         <v>443</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7">
+      <c r="O7" s="7"/>
+      <c r="P7" s="8">
         <f>SUM(P3+P4+P5)</f>
         <v>1.6215277777777779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>1.17</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>111</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2.16</v>
       </c>
     </row>
   </sheetData>
